--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1684,15 +1684,15 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A404" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B415" activeCellId="0" sqref="B415"/>
+      <selection pane="topLeft" activeCell="B416" activeCellId="0" sqref="B416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="10.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6057,10 @@
         <v>407</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
